--- a/T2DM iHMP Data/subject data/Subject data T2DM iHMP 5.xlsx
+++ b/T2DM iHMP Data/subject data/Subject data T2DM iHMP 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabde\OneDrive\Documents\UM documents\BMS Year 3\Internship + Thesis\Sabrina_BMS_Bachelor-Internship\T2DM iHMP Data\subject data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729B9D01-011B-4502-AC14-231CD690B4DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AC852A-3BD5-4A6D-836E-1423BD4E1C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -389,6 +389,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -673,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1166,7 +1169,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="2" t="s">

--- a/T2DM iHMP Data/subject data/Subject data T2DM iHMP 5.xlsx
+++ b/T2DM iHMP Data/subject data/Subject data T2DM iHMP 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabde\OneDrive\Documents\UM documents\BMS Year 3\Internship + Thesis\Sabrina_BMS_Bachelor-Internship\T2DM iHMP Data\subject data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34420f5773a88cdb/Documents/UM documents/BMS Year 3/Internship ^M Thesis/Sabrina_BMS_Bachelor-Internship/T2DM iHMP Data/subject data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AC852A-3BD5-4A6D-836E-1423BD4E1C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B6AC852A-3BD5-4A6D-836E-1423BD4E1C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4AC82671-67FB-4817-A87D-19D4B5555999}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="19200" windowHeight="10150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,13 +385,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,40 +705,40 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -746,39 +746,39 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -786,31 +786,31 @@
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
+      <c r="A14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
@@ -826,159 +826,159 @@
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
+      <c r="A19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
+      <c r="A20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
+      <c r="A22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
+      <c r="A24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>5</v>
+      <c r="A26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
+      <c r="A27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>5</v>
+      <c r="A28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>5</v>
+      <c r="A30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>5</v>
+      <c r="A31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>35</v>
+      <c r="A33" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>3</v>
+      <c r="A34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>3</v>
+      <c r="A36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
@@ -986,95 +986,95 @@
     </row>
     <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>3</v>
+      <c r="A39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
+      <c r="A40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>3</v>
+      <c r="A41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>3</v>
+      <c r="A43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>3</v>
+      <c r="A45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>3</v>
+      <c r="A46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>3</v>
+      <c r="A48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>5</v>
@@ -1082,63 +1082,63 @@
     </row>
     <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>3</v>
+      <c r="A51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>3</v>
+      <c r="A52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>3</v>
+      <c r="A53" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>3</v>
+      <c r="A54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>3</v>
+      <c r="A55" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>3</v>
+      <c r="A56" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>5</v>
@@ -1146,39 +1146,39 @@
     </row>
     <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>3</v>
+      <c r="B61" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
-    <sortCondition ref="A1"/>
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/T2DM iHMP Data/subject data/Subject data T2DM iHMP 5.xlsx
+++ b/T2DM iHMP Data/subject data/Subject data T2DM iHMP 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34420f5773a88cdb/Documents/UM documents/BMS Year 3/Internship ^M Thesis/Sabrina_BMS_Bachelor-Internship/T2DM iHMP Data/subject data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B6AC852A-3BD5-4A6D-836E-1423BD4E1C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4AC82671-67FB-4817-A87D-19D4B5555999}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{B6AC852A-3BD5-4A6D-836E-1423BD4E1C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5B767DB6-F92F-4B25-B749-AD032941244A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="50" windowWidth="19200" windowHeight="10150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12470" yWindow="0" windowWidth="6830" windowHeight="10150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
   <si>
     <t>SubjectID</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>ZQFL1P3</t>
-  </si>
-  <si>
-    <t>ZQMVU4Q</t>
   </si>
   <si>
     <t>ZR47VBL</t>
@@ -361,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -381,17 +378,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -676,13 +670,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B61"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" customWidth="1"/>
     <col min="3" max="3" width="56.1796875" customWidth="1"/>
   </cols>
@@ -794,7 +788,7 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -802,7 +796,7 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
@@ -810,7 +804,7 @@
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
@@ -818,7 +812,7 @@
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
@@ -826,7 +820,7 @@
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
@@ -834,7 +828,7 @@
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
@@ -842,7 +836,7 @@
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
@@ -850,7 +844,7 @@
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
@@ -858,7 +852,7 @@
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
@@ -866,7 +860,7 @@
     </row>
     <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
@@ -874,7 +868,7 @@
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
@@ -882,7 +876,7 @@
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
@@ -890,7 +884,7 @@
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
@@ -898,7 +892,7 @@
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
@@ -906,7 +900,7 @@
     </row>
     <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
@@ -914,7 +908,7 @@
     </row>
     <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
@@ -922,7 +916,7 @@
     </row>
     <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
@@ -930,7 +924,7 @@
     </row>
     <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>3</v>
@@ -938,22 +932,22 @@
     </row>
     <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -961,7 +955,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -972,12 +966,12 @@
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -985,7 +979,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -993,7 +987,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -1001,7 +995,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1009,7 +1003,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -1017,7 +1011,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1025,7 +1019,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1033,7 +1027,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -1041,7 +1035,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -1049,7 +1043,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -1057,7 +1051,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -1065,7 +1059,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -1073,7 +1067,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -1081,7 +1075,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1089,7 +1083,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -1097,80 +1091,80 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
-        <v>37</v>
+      <c r="A52" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="B54" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
-        <v>44</v>
+      <c r="A55" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
-        <v>46</v>
+      <c r="A56" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="7" t="s">
-        <v>49</v>
+      <c r="A57" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="B59" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>5</v>
@@ -1181,6 +1175,6 @@
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>